--- a/DATA-EDS/Probabilistic Data A Fast-Specialized PEM for POPF in Distribution Systems with Renewable Distributed Generation.xlsx
+++ b/DATA-EDS/Probabilistic Data A Fast-Specialized PEM for POPF in Distribution Systems with Renewable Distributed Generation.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Data IEEE 69 Bus" sheetId="1" r:id="rId1"/>
     <sheet name="Data Real System 202 Bus" sheetId="2" r:id="rId2"/>
     <sheet name="Photovoltaic Generation" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="4" r:id="rId4"/>
+    <sheet name="Wind Generation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -905,10 +905,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12200,10 +12200,10 @@
       <c r="B3" s="24">
         <v>152.14221918203299</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="27"/>
       <c r="I3" s="25" t="s">
         <v>227</v>
       </c>
@@ -12230,7 +12230,7 @@
       <c r="I4" s="24">
         <v>1000</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="26">
         <v>1</v>
       </c>
     </row>
@@ -28266,10 +28266,10 @@
       <c r="B3" s="24">
         <v>0</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="27"/>
       <c r="I3" s="25" t="s">
         <v>227</v>
       </c>
@@ -28290,13 +28290,13 @@
       <c r="F4" s="24">
         <v>6.5</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="26">
         <v>1000</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="26">
         <v>0.9</v>
       </c>
     </row>

--- a/DATA-EDS/Probabilistic Data A Fast-Specialized PEM for POPF in Distribution Systems with Renewable Distributed Generation.xlsx
+++ b/DATA-EDS/Probabilistic Data A Fast-Specialized PEM for POPF in Distribution Systems with Renewable Distributed Generation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data IEEE 69 Bus" sheetId="1" r:id="rId1"/>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>Line</t>
-  </si>
-  <si>
-    <t>Ini</t>
-  </si>
-  <si>
-    <t>Fin</t>
   </si>
   <si>
     <t>R</t>
@@ -742,6 +736,12 @@
   <si>
     <t>Cut out wind speed m·s−1</t>
   </si>
+  <si>
+    <t>Initial Bus</t>
+  </si>
+  <si>
+    <t>End Bus</t>
+  </si>
 </sst>
 </file>
 
@@ -832,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,6 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1192,7 +1193,7 @@
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1217,31 +1218,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2386,7 +2387,7 @@
         <v>1.8600000000000003</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J30" s="20">
         <v>27</v>
@@ -2426,7 +2427,7 @@
         <v>1.8600000000000003</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J31" s="20">
         <v>28</v>
@@ -2466,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J32" s="20">
         <v>29</v>
@@ -2506,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J33" s="20">
         <v>30</v>
@@ -2546,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J34" s="20">
         <v>31</v>
@@ -2586,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J35" s="20">
         <v>32</v>
@@ -2626,7 +2627,7 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J36" s="20">
         <v>33</v>
@@ -2786,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J40" s="20">
         <v>65</v>
@@ -2826,7 +2827,7 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J41" s="20">
         <v>66</v>
@@ -2866,7 +2867,7 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J42" s="20">
         <v>67</v>
@@ -2906,7 +2907,7 @@
         <v>0.1</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J43" s="20">
         <v>68</v>
@@ -2946,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J44" s="20">
         <v>69</v>
@@ -2986,7 +2987,7 @@
         <v>0.43</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J45" s="20">
         <v>70</v>
@@ -3026,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J46" s="20">
         <v>88</v>
@@ -3066,7 +3067,7 @@
         <v>2.6300000000000003</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J47" s="20">
         <v>89</v>
@@ -3106,7 +3107,7 @@
         <v>2.6300000000000003</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J48" s="20">
         <v>3</v>
@@ -3146,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J49" s="20">
         <v>35</v>
@@ -3186,7 +3187,7 @@
         <v>5.6400000000000006</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J50" s="20">
         <v>36</v>
@@ -3226,7 +3227,7 @@
         <v>27.450000000000003</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J51" s="20">
         <v>37</v>
@@ -4044,13 +4045,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="6" width="11.42578125" style="24"/>
+    <col min="4" max="6" width="11.42578125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4064,31 +4065,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4393,7 +4394,7 @@
         <v>2.37</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J9" s="12">
         <v>8</v>
@@ -4433,7 +4434,7 @@
         <v>5.8990000000000009</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J10" s="12">
         <v>9</v>
@@ -4473,7 +4474,7 @@
         <v>3.95</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J11" s="12">
         <v>10</v>
@@ -4513,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J12" s="12">
         <v>11</v>
@@ -4553,7 +4554,7 @@
         <v>31.602</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J13" s="12">
         <v>10</v>
@@ -4593,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J14" s="12">
         <v>13</v>
@@ -4633,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J15" s="12">
         <v>10</v>
@@ -4673,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J16" s="12">
         <v>15</v>
@@ -4713,7 +4714,7 @@
         <v>3.95</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J17" s="12">
         <v>16</v>
@@ -4753,7 +4754,7 @@
         <v>7.9010000000000007</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J18" s="12">
         <v>17</v>
@@ -4793,7 +4794,7 @@
         <v>3.95</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J19" s="12">
         <v>17</v>
@@ -4833,7 +4834,7 @@
         <v>3.95</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J20" s="12">
         <v>19</v>
@@ -4873,7 +4874,7 @@
         <v>15.801</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J21" s="12">
         <v>14</v>
@@ -4913,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J22" s="12">
         <v>21</v>
@@ -4953,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J23" s="12">
         <v>22</v>
@@ -4993,7 +4994,7 @@
         <v>15.801</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J24" s="12">
         <v>23</v>
@@ -5033,7 +5034,7 @@
         <v>15.801</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J25" s="12">
         <v>24</v>
@@ -5073,7 +5074,7 @@
         <v>23.702000000000002</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J26" s="12">
         <v>25</v>
@@ -5113,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J27" s="12">
         <v>26</v>
@@ -5153,7 +5154,7 @@
         <v>11.851000000000001</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J28" s="12">
         <v>25</v>
@@ -5193,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J29" s="12">
         <v>28</v>
@@ -5233,7 +5234,7 @@
         <v>3.16</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J30" s="12">
         <v>29</v>
@@ -5273,7 +5274,7 @@
         <v>5.9250000000000007</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J31" s="12">
         <v>30</v>
@@ -5313,7 +5314,7 @@
         <v>5.9250000000000007</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J32" s="12">
         <v>31</v>
@@ -5353,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J33" s="12">
         <v>32</v>
@@ -5393,7 +5394,7 @@
         <v>21.725999999999999</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J34" s="12">
         <v>32</v>
@@ -5433,7 +5434,7 @@
         <v>21.725999999999999</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J35" s="12">
         <v>29</v>
@@ -5473,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J36" s="12">
         <v>35</v>
@@ -5513,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J37" s="12">
         <v>36</v>
@@ -5553,7 +5554,7 @@
         <v>3.95</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J38" s="12">
         <v>35</v>
@@ -5593,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J39" s="12">
         <v>38</v>
@@ -5633,7 +5634,7 @@
         <v>5.9250000000000007</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J40" s="12">
         <v>27</v>
@@ -5673,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J41" s="12">
         <v>40</v>
@@ -5713,7 +5714,7 @@
         <v>15.801</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J42" s="12">
         <v>40</v>
@@ -5753,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J43" s="12">
         <v>42</v>
@@ -5793,7 +5794,7 @@
         <v>11.851000000000001</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J44" s="12">
         <v>43</v>
@@ -5833,7 +5834,7 @@
         <v>5.9250000000000007</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J45" s="12">
         <v>42</v>
@@ -5873,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J46" s="12">
         <v>45</v>
@@ -5913,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J47" s="12">
         <v>46</v>
@@ -5953,7 +5954,7 @@
         <v>3.95</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J48" s="12">
         <v>45</v>
@@ -5993,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J49" s="12">
         <v>48</v>
@@ -6033,7 +6034,7 @@
         <v>37.527000000000001</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J50" s="12">
         <v>44</v>
@@ -6073,7 +6074,7 @@
         <v>35.552</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J51" s="12">
         <v>50</v>
@@ -6113,7 +6114,7 @@
         <v>11.851000000000001</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J52" s="12">
         <v>51</v>
@@ -6153,7 +6154,7 @@
         <v>15.801</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J53" s="12">
         <v>52</v>
@@ -6193,7 +6194,7 @@
         <v>47.402999999999999</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J54" s="12">
         <v>53</v>
@@ -6233,7 +6234,7 @@
         <v>15.801</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J55" s="12">
         <v>54</v>
@@ -6273,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J56" s="12">
         <v>55</v>
@@ -6313,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J57" s="12">
         <v>56</v>
@@ -6353,7 +6354,7 @@
         <v>19.751000000000001</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J58" s="12">
         <v>57</v>
@@ -6393,7 +6394,7 @@
         <v>19.751000000000001</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J59" s="12">
         <v>1</v>
@@ -6433,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J60" s="12">
         <v>59</v>
@@ -6473,7 +6474,7 @@
         <v>1.58</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J61" s="12">
         <v>60</v>
@@ -6513,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J62" s="12">
         <v>61</v>
@@ -6553,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J63" s="12">
         <v>62</v>
@@ -6593,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J64" s="12">
         <v>63</v>
@@ -6633,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J65" s="12">
         <v>63</v>
@@ -6673,7 +6674,7 @@
         <v>5.9250000000000007</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J66" s="12">
         <v>65</v>
@@ -6713,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J67" s="12">
         <v>66</v>
@@ -6753,7 +6754,7 @@
         <v>2.37</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J68" s="12">
         <v>67</v>
@@ -6793,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J69" s="12">
         <v>68</v>
@@ -6833,7 +6834,7 @@
         <v>6.32</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J70" s="12">
         <v>64</v>
@@ -6873,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J71" s="12">
         <v>70</v>
@@ -6913,7 +6914,7 @@
         <v>5.53</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J72" s="12">
         <v>70</v>
@@ -6953,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J73" s="12">
         <v>72</v>
@@ -6993,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J74" s="12">
         <v>73</v>
@@ -7033,7 +7034,7 @@
         <v>2.37</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J75" s="12">
         <v>70</v>
@@ -7073,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J76" s="12">
         <v>75</v>
@@ -7113,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J77" s="12">
         <v>76</v>
@@ -7153,7 +7154,7 @@
         <v>31.602</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J78" s="12">
         <v>75</v>
@@ -7193,7 +7194,7 @@
         <v>36.869</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J79" s="12">
         <v>78</v>
@@ -7233,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J80" s="12">
         <v>79</v>
@@ -7273,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J81" s="12">
         <v>79</v>
@@ -7313,7 +7314,7 @@
         <v>23.702000000000002</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J82" s="12">
         <v>81</v>
@@ -7353,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J83" s="12">
         <v>80</v>
@@ -7393,7 +7394,7 @@
         <v>21.725999999999999</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J84" s="12">
         <v>82</v>
@@ -7433,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J85" s="12">
         <v>84</v>
@@ -7473,7 +7474,7 @@
         <v>2.37</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J86" s="12">
         <v>84</v>
@@ -7513,7 +7514,7 @@
         <v>15.801</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J87" s="12">
         <v>86</v>
@@ -7553,7 +7554,7 @@
         <v>27.652000000000001</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J88" s="12">
         <v>87</v>
@@ -7593,7 +7594,7 @@
         <v>23.702000000000002</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J89" s="12">
         <v>79</v>
@@ -7633,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J90" s="12">
         <v>89</v>
@@ -7673,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J91" s="12">
         <v>90</v>
@@ -7713,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J92" s="12">
         <v>91</v>
@@ -7753,7 +7754,7 @@
         <v>5.9250000000000007</v>
       </c>
       <c r="I93" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J93" s="12">
         <v>90</v>
@@ -7793,7 +7794,7 @@
         <v>11.851000000000001</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J94" s="12">
         <v>93</v>
@@ -7833,7 +7834,7 @@
         <v>13.431000000000001</v>
       </c>
       <c r="I95" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J95" s="12">
         <v>94</v>
@@ -7873,7 +7874,7 @@
         <v>5.9250000000000007</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J96" s="12">
         <v>95</v>
@@ -7913,7 +7914,7 @@
         <v>11.851000000000001</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J97" s="12">
         <v>96</v>
@@ -7953,7 +7954,7 @@
         <v>3.95</v>
       </c>
       <c r="I98" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J98" s="12">
         <v>97</v>
@@ -7993,7 +7994,7 @@
         <v>23.702000000000002</v>
       </c>
       <c r="I99" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J99" s="12">
         <v>88</v>
@@ -8033,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J100" s="12">
         <v>99</v>
@@ -8073,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J101" s="12">
         <v>100</v>
@@ -8113,7 +8114,7 @@
         <v>3.95</v>
       </c>
       <c r="I102" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J102" s="12">
         <v>100</v>
@@ -8153,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J103" s="12">
         <v>102</v>
@@ -8193,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J104" s="12">
         <v>103</v>
@@ -8233,7 +8234,7 @@
         <v>3.95</v>
       </c>
       <c r="I105" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J105" s="12">
         <v>102</v>
@@ -8273,7 +8274,7 @@
         <v>7.9010000000000007</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J106" s="12">
         <v>105</v>
@@ -8313,7 +8314,7 @@
         <v>5.9250000000000007</v>
       </c>
       <c r="I107" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J107" s="12">
         <v>102</v>
@@ -8353,7 +8354,7 @@
         <v>6.5840000000000005</v>
       </c>
       <c r="I108" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J108" s="12">
         <v>107</v>
@@ -8393,7 +8394,7 @@
         <v>7.9010000000000007</v>
       </c>
       <c r="I109" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J109" s="12">
         <v>106</v>
@@ -8433,7 +8434,7 @@
         <v>5.9250000000000007</v>
       </c>
       <c r="I110" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J110" s="12">
         <v>109</v>
@@ -8473,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J111" s="12">
         <v>110</v>
@@ -8513,7 +8514,7 @@
         <v>7.9010000000000007</v>
       </c>
       <c r="I112" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J112" s="12">
         <v>111</v>
@@ -8553,7 +8554,7 @@
         <v>7.9010000000000007</v>
       </c>
       <c r="I113" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J113" s="12">
         <v>112</v>
@@ -8593,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J114" s="12">
         <v>113</v>
@@ -8633,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J115" s="12">
         <v>113</v>
@@ -8673,7 +8674,7 @@
         <v>19.751000000000001</v>
       </c>
       <c r="I116" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J116" s="12">
         <v>115</v>
@@ -8713,7 +8714,7 @@
         <v>21.725999999999999</v>
       </c>
       <c r="I117" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J117" s="12">
         <v>116</v>
@@ -8753,7 +8754,7 @@
         <v>27.652000000000001</v>
       </c>
       <c r="I118" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J118" s="12">
         <v>114</v>
@@ -8793,7 +8794,7 @@
         <v>3.95</v>
       </c>
       <c r="I119" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J119" s="12">
         <v>113</v>
@@ -8833,7 +8834,7 @@
         <v>7.9010000000000007</v>
       </c>
       <c r="I120" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J120" s="12">
         <v>119</v>
@@ -8873,7 +8874,7 @@
         <v>3.95</v>
       </c>
       <c r="I121" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J121" s="12">
         <v>120</v>
@@ -8913,7 +8914,7 @@
         <v>23.702000000000002</v>
       </c>
       <c r="I122" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J122" s="12">
         <v>121</v>
@@ -8953,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J123" s="12">
         <v>122</v>
@@ -8993,7 +8994,7 @@
         <v>4.74</v>
       </c>
       <c r="I124" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J124" s="12">
         <v>122</v>
@@ -9033,7 +9034,7 @@
         <v>15.801</v>
       </c>
       <c r="I125" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J125" s="12">
         <v>124</v>
@@ -9073,7 +9074,7 @@
         <v>11.851000000000001</v>
       </c>
       <c r="I126" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J126" s="12">
         <v>123</v>
@@ -9113,7 +9114,7 @@
         <v>15.801</v>
       </c>
       <c r="I127" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J127" s="12">
         <v>125</v>
@@ -9153,7 +9154,7 @@
         <v>14.484000000000002</v>
       </c>
       <c r="I128" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J128" s="12">
         <v>127</v>
@@ -9193,7 +9194,7 @@
         <v>35.552</v>
       </c>
       <c r="I129" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J129" s="12">
         <v>127</v>
@@ -9233,7 +9234,7 @@
         <v>17.118000000000002</v>
       </c>
       <c r="I130" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J130" s="12">
         <v>129</v>
@@ -9273,7 +9274,7 @@
         <v>15.801</v>
       </c>
       <c r="I131" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J131" s="12">
         <v>130</v>
@@ -9313,7 +9314,7 @@
         <v>24.36</v>
       </c>
       <c r="I132" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J132" s="12">
         <v>131</v>
@@ -9393,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J134" s="12">
         <v>133</v>
@@ -9433,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J135" s="12">
         <v>134</v>
@@ -9473,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J136" s="12">
         <v>135</v>
@@ -9513,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J137" s="12">
         <v>136</v>
@@ -9553,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J138" s="12">
         <v>137</v>
@@ -9593,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J139" s="12">
         <v>137</v>
@@ -9633,7 +9634,7 @@
         <v>3.95</v>
       </c>
       <c r="I140" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J140" s="12">
         <v>139</v>
@@ -9673,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J141" s="12">
         <v>140</v>
@@ -9713,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="I142" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J142" s="12">
         <v>140</v>
@@ -9753,7 +9754,7 @@
         <v>2.37</v>
       </c>
       <c r="I143" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J143" s="12">
         <v>142</v>
@@ -9793,7 +9794,7 @@
         <v>2.37</v>
       </c>
       <c r="I144" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J144" s="12">
         <v>141</v>
@@ -9833,7 +9834,7 @@
         <v>3.95</v>
       </c>
       <c r="I145" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J145" s="12">
         <v>137</v>
@@ -9873,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J146" s="12">
         <v>145</v>
@@ -9913,7 +9914,7 @@
         <v>3.95</v>
       </c>
       <c r="I147" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J147" s="12">
         <v>146</v>
@@ -9953,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J148" s="12">
         <v>147</v>
@@ -9993,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J149" s="12">
         <v>148</v>
@@ -10033,7 +10034,7 @@
         <v>5.9250000000000007</v>
       </c>
       <c r="I150" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J150" s="12">
         <v>146</v>
@@ -10073,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J151" s="12">
         <v>150</v>
@@ -10113,7 +10114,7 @@
         <v>3.95</v>
       </c>
       <c r="I152" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J152" s="12">
         <v>143</v>
@@ -10153,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J153" s="12">
         <v>152</v>
@@ -10193,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J154" s="12">
         <v>152</v>
@@ -10233,7 +10234,7 @@
         <v>3.95</v>
       </c>
       <c r="I155" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J155" s="12">
         <v>154</v>
@@ -10273,7 +10274,7 @@
         <v>13.168000000000001</v>
       </c>
       <c r="I156" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J156" s="12">
         <v>155</v>
@@ -10313,7 +10314,7 @@
         <v>3.95</v>
       </c>
       <c r="I157" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J157" s="12">
         <v>153</v>
@@ -10353,7 +10354,7 @@
         <v>3.95</v>
       </c>
       <c r="I158" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J158" s="12">
         <v>156</v>
@@ -10393,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J159" s="12">
         <v>158</v>
@@ -10433,7 +10434,7 @@
         <v>3.95</v>
       </c>
       <c r="I160" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J160" s="12">
         <v>159</v>
@@ -10473,7 +10474,7 @@
         <v>2.37</v>
       </c>
       <c r="I161" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J161" s="12">
         <v>158</v>
@@ -10513,7 +10514,7 @@
         <v>3.95</v>
       </c>
       <c r="I162" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J162" s="12">
         <v>161</v>
@@ -10553,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J163" s="12">
         <v>162</v>
@@ -10593,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J164" s="12">
         <v>163</v>
@@ -10633,7 +10634,7 @@
         <v>5.9250000000000007</v>
       </c>
       <c r="I165" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J165" s="12">
         <v>164</v>
@@ -10673,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="I166" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J166" s="12">
         <v>165</v>
@@ -10713,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J167" s="12">
         <v>165</v>
@@ -10753,7 +10754,7 @@
         <v>27.652000000000001</v>
       </c>
       <c r="I168" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J168" s="12">
         <v>167</v>
@@ -10793,7 +10794,7 @@
         <v>11.851000000000001</v>
       </c>
       <c r="I169" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J169" s="12">
         <v>168</v>
@@ -10833,7 +10834,7 @@
         <v>15.801</v>
       </c>
       <c r="I170" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J170" s="12">
         <v>166</v>
@@ -10873,7 +10874,7 @@
         <v>37.527000000000001</v>
       </c>
       <c r="I171" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J171" s="12">
         <v>169</v>
@@ -10913,7 +10914,7 @@
         <v>3.95</v>
       </c>
       <c r="I172" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J172" s="12">
         <v>171</v>
@@ -10953,7 +10954,7 @@
         <v>7.9010000000000007</v>
       </c>
       <c r="I173" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J173" s="12">
         <v>171</v>
@@ -10993,7 +10994,7 @@
         <v>3.95</v>
       </c>
       <c r="I174" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J174" s="12">
         <v>173</v>
@@ -11033,7 +11034,7 @@
         <v>11.851000000000001</v>
       </c>
       <c r="I175" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J175" s="12">
         <v>174</v>
@@ -11073,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J176" s="12">
         <v>175</v>
@@ -11113,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="I177" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J177" s="12">
         <v>176</v>
@@ -11153,7 +11154,7 @@
         <v>12.904</v>
       </c>
       <c r="I178" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J178" s="12">
         <v>175</v>
@@ -11193,7 +11194,7 @@
         <v>11.851000000000001</v>
       </c>
       <c r="I179" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J179" s="12">
         <v>178</v>
@@ -11233,7 +11234,7 @@
         <v>7.9010000000000007</v>
       </c>
       <c r="I180" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J180" s="12">
         <v>179</v>
@@ -11273,7 +11274,7 @@
         <v>7.9010000000000007</v>
       </c>
       <c r="I181" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J181" s="12">
         <v>180</v>
@@ -11313,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="I182" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J182" s="12">
         <v>181</v>
@@ -11353,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J183" s="12">
         <v>181</v>
@@ -11393,7 +11394,7 @@
         <v>15.801</v>
       </c>
       <c r="I184" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J184" s="12">
         <v>182</v>
@@ -11433,7 +11434,7 @@
         <v>7.9010000000000007</v>
       </c>
       <c r="I185" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J185" s="12">
         <v>181</v>
@@ -11473,7 +11474,7 @@
         <v>52.670000000000009</v>
       </c>
       <c r="I186" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J186" s="12">
         <v>185</v>
@@ -11513,7 +11514,7 @@
         <v>7.9010000000000007</v>
       </c>
       <c r="I187" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J187" s="12">
         <v>186</v>
@@ -11553,7 +11554,7 @@
         <v>31.602</v>
       </c>
       <c r="I188" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J188" s="12">
         <v>187</v>
@@ -11593,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J189" s="12">
         <v>188</v>
@@ -11633,7 +11634,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J190" s="12">
         <v>188</v>
@@ -11673,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J191" s="12">
         <v>190</v>
@@ -11713,7 +11714,7 @@
         <v>11.851000000000001</v>
       </c>
       <c r="I192" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J192" s="12">
         <v>189</v>
@@ -11753,7 +11754,7 @@
         <v>27.783000000000001</v>
       </c>
       <c r="I193" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J193" s="12">
         <v>188</v>
@@ -11793,7 +11794,7 @@
         <v>15.801</v>
       </c>
       <c r="I194" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J194" s="12">
         <v>193</v>
@@ -11833,7 +11834,7 @@
         <v>31.602</v>
       </c>
       <c r="I195" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J195" s="12">
         <v>193</v>
@@ -11873,7 +11874,7 @@
         <v>23.702000000000002</v>
       </c>
       <c r="I196" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J196" s="12">
         <v>195</v>
@@ -11913,7 +11914,7 @@
         <v>15.801</v>
       </c>
       <c r="I197" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J197" s="12">
         <v>196</v>
@@ -11953,7 +11954,7 @@
         <v>11.851000000000001</v>
       </c>
       <c r="I198" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J198" s="12">
         <v>193</v>
@@ -11993,7 +11994,7 @@
         <v>27.652000000000001</v>
       </c>
       <c r="I199" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J199" s="12">
         <v>198</v>
@@ -12033,7 +12034,7 @@
         <v>8.2959999999999994</v>
       </c>
       <c r="I200" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J200" s="12">
         <v>197</v>
@@ -12073,7 +12074,7 @@
         <v>5.9250000000000007</v>
       </c>
       <c r="I201" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J201" s="12">
         <v>200</v>
@@ -12113,7 +12114,7 @@
         <v>23.702000000000002</v>
       </c>
       <c r="I202" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J202" s="12">
         <v>200</v>
@@ -12155,6 +12156,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12179,10 +12181,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -12200,15 +12202,15 @@
       <c r="B3" s="24">
         <v>152.14221918203299</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="I3" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="I3" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -12219,13 +12221,13 @@
         <v>822.55143323174798</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F4" s="24">
         <v>5.5</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I4" s="24">
         <v>1000</v>
@@ -12242,7 +12244,7 @@
         <v>144.88061065123301</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F5" s="24">
         <v>1.8</v>
@@ -28228,8 +28230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28245,10 +28247,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -28266,15 +28268,15 @@
       <c r="B3" s="24">
         <v>0</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" s="27"/>
+      <c r="E3" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="28"/>
       <c r="I3" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -28285,13 +28287,13 @@
         <v>339.60189261124702</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F4" s="24">
         <v>6.5</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I4" s="26">
         <v>1000</v>
@@ -28308,7 +28310,7 @@
         <v>481.03833199509103</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F5" s="24">
         <v>2</v>
@@ -28322,7 +28324,7 @@
         <v>357.98757239338499</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F6" s="24">
         <v>4</v>
@@ -28336,7 +28338,7 @@
         <v>241.80251529855801</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F7" s="24">
         <v>15</v>
@@ -28350,7 +28352,7 @@
         <v>296.485605061581</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F8" s="24">
         <v>20</v>
